--- a/NDVI Analysis/ndvi_analysis/data/ET_20_years_v3.xlsx
+++ b/NDVI Analysis/ndvi_analysis/data/ET_20_years_v3.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/mukesh_ray_student_uts_edu_au/Documents/PhD_UTS/Stage 3/Master Data Sheets/R Calculations/phd_analysis_code/NDVI Analysis/ndvi_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4675CF0F-1F14-4E92-89CD-8BA06D5807BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:40009_{4675CF0F-1F14-4E92-89CD-8BA06D5807BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C509EBC2-6510-4975-9BF4-01C22AB8CD76}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-22920" yWindow="3585" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ee-chart (24)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -751,7 +763,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1585,11 +1597,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1607,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>110.682</v>
+        <v>11.068200000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1615,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>434.12400000000002</v>
+        <v>43.412400000000005</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1623,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>359.56599999999997</v>
+        <v>35.956599999999995</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1631,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.989000000000001</v>
+        <v>2.6989000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1639,7 +1651,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.214</v>
+        <v>0.22139999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1647,7 +1659,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.3539999999999992</v>
+        <v>0.83539999999999992</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1655,7 +1667,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>61.811</v>
+        <v>6.1810999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1663,7 +1675,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>213.36799999999999</v>
+        <v>21.3368</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1671,7 +1683,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>103.36499999999999</v>
+        <v>10.336499999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1679,7 +1691,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>46.134</v>
+        <v>4.6134000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1687,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>63.29</v>
+        <v>6.3289999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1695,7 +1707,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.231000000000002</v>
+        <v>3.8231000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1703,7 +1715,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>114.15900000000001</v>
+        <v>11.415900000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1711,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>477.56799999999998</v>
+        <v>47.756799999999998</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1719,7 +1731,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>313.81700000000001</v>
+        <v>31.381700000000002</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1727,7 +1739,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.2140000000000004</v>
+        <v>0.62140000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1735,7 +1747,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.34300000000000003</v>
+        <v>3.4300000000000004E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1743,7 +1755,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.3650000000000002</v>
+        <v>0.63650000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1751,7 +1763,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.419</v>
+        <v>0.2419</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1759,7 +1771,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>83.369</v>
+        <v>8.3369</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1767,7 +1779,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>243.31899999999999</v>
+        <v>24.331899999999997</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1775,7 +1787,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>130.18199999999999</v>
+        <v>13.018199999999998</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1783,7 +1795,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>82.852999999999994</v>
+        <v>8.2852999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1791,7 +1803,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>68.222999999999999</v>
+        <v>6.8223000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1799,7 +1811,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>96.698999999999998</v>
+        <v>9.6699000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1807,7 +1819,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>501.29199999999997</v>
+        <v>50.129199999999997</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1815,7 +1827,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>360.38099999999997</v>
+        <v>36.0381</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1823,7 +1835,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6.4420000000000002</v>
+        <v>0.64419999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1831,7 +1843,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.54100000000000004</v>
+        <v>5.4100000000000002E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1839,7 +1851,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>16.111000000000001</v>
+        <v>1.6111</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1847,7 +1859,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>145.27000000000001</v>
+        <v>14.527000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1855,7 +1867,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>275.827</v>
+        <v>27.582699999999999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1863,7 +1875,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>440.79399999999998</v>
+        <v>44.0794</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1871,7 +1883,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>149.202</v>
+        <v>14.920199999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1879,7 +1891,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>87.122</v>
+        <v>8.7121999999999993</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1887,7 +1899,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>64.983999999999995</v>
+        <v>6.4983999999999993</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1895,7 +1907,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>114.587</v>
+        <v>11.4587</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1903,7 +1915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>558.10699999999997</v>
+        <v>55.810699999999997</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1911,7 +1923,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>207.81299999999999</v>
+        <v>20.781299999999998</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1919,7 +1931,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>14.244999999999999</v>
+        <v>1.4244999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1927,7 +1939,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.06</v>
+        <v>0.10600000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1935,7 +1947,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>19.393999999999998</v>
+        <v>1.9393999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1943,7 +1955,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>14.564</v>
+        <v>1.4563999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1951,7 +1963,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>225.65</v>
+        <v>22.565000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1959,7 +1971,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>317.45600000000002</v>
+        <v>31.745600000000003</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1967,7 +1979,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>173.53</v>
+        <v>17.353000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1975,7 +1987,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>60.71</v>
+        <v>6.0709999999999997</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1983,7 +1995,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>84.409000000000006</v>
+        <v>8.440900000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1991,7 +2003,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>226.11699999999999</v>
+        <v>22.611699999999999</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1999,7 +2011,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>531.02599999999995</v>
+        <v>53.102599999999995</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2007,7 +2019,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>376.86</v>
+        <v>37.686</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2015,7 +2027,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>13.536</v>
+        <v>1.3535999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2023,7 +2035,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6.0970000000000004</v>
+        <v>0.60970000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2031,7 +2043,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.0569999999999999</v>
+        <v>0.30569999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2039,7 +2051,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>211.26499999999999</v>
+        <v>21.1265</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2047,7 +2059,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>275.012</v>
+        <v>27.501200000000001</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2055,7 +2067,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>468.14800000000002</v>
+        <v>46.814800000000005</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2063,7 +2075,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>188.58600000000001</v>
+        <v>18.858600000000003</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2071,7 +2083,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>83.799000000000007</v>
+        <v>8.379900000000001</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2079,7 +2091,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>47.042000000000002</v>
+        <v>4.7042000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2087,7 +2099,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>143.15100000000001</v>
+        <v>14.315100000000001</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -2095,7 +2107,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>429.92899999999997</v>
+        <v>42.992899999999999</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -2103,7 +2115,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>293.428</v>
+        <v>29.3428</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -2111,7 +2123,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>10.265000000000001</v>
+        <v>1.0265</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -2119,7 +2131,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.581</v>
+        <v>0.15809999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -2127,7 +2139,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>78.745999999999995</v>
+        <v>7.8745999999999992</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -2135,7 +2147,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>167.01400000000001</v>
+        <v>16.7014</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -2143,7 +2155,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>525.85</v>
+        <v>52.585000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -2151,7 +2163,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>622.5</v>
+        <v>62.25</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -2159,7 +2171,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>154.12899999999999</v>
+        <v>15.412899999999999</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -2167,7 +2179,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>88.549000000000007</v>
+        <v>8.8549000000000007</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -2175,7 +2187,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>77.787999999999997</v>
+        <v>7.7787999999999995</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -2183,7 +2195,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>173.92599999999999</v>
+        <v>17.392599999999998</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -2191,7 +2203,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>427.02600000000001</v>
+        <v>42.702600000000004</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -2199,7 +2211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>437.01900000000001</v>
+        <v>43.701900000000002</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -2207,7 +2219,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>10.398999999999999</v>
+        <v>1.0398999999999998</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -2215,7 +2227,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.56100000000000005</v>
+        <v>5.6100000000000004E-2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -2223,7 +2235,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>31.341999999999999</v>
+        <v>3.1341999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -2231,7 +2243,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>80.046000000000006</v>
+        <v>8.0045999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -2239,7 +2251,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>239.70599999999999</v>
+        <v>23.970599999999997</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -2247,7 +2259,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>382.6</v>
+        <v>38.260000000000005</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -2255,7 +2267,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>102.188</v>
+        <v>10.2188</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -2263,7 +2275,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>45.128999999999998</v>
+        <v>4.5129000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -2271,7 +2283,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>54.645000000000003</v>
+        <v>5.4645000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -2279,7 +2291,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>109.113</v>
+        <v>10.911300000000001</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -2287,7 +2299,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>284.90300000000002</v>
+        <v>28.490300000000001</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -2295,7 +2307,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>203.67</v>
+        <v>20.366999999999997</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -2303,7 +2315,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>31.161000000000001</v>
+        <v>3.1161000000000003</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -2311,7 +2323,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>24.234999999999999</v>
+        <v>2.4234999999999998</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -2319,7 +2331,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>64.182000000000002</v>
+        <v>6.4182000000000006</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -2327,7 +2339,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>115.869</v>
+        <v>11.5869</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -2335,7 +2347,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>494.94900000000001</v>
+        <v>49.494900000000001</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -2343,7 +2355,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>598.60599999999999</v>
+        <v>59.860599999999998</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -2351,7 +2363,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>191.21899999999999</v>
+        <v>19.1219</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -2359,7 +2371,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>62.073</v>
+        <v>6.2073</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -2367,7 +2379,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>87.751999999999995</v>
+        <v>8.7751999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -2375,7 +2387,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>205.55600000000001</v>
+        <v>20.555600000000002</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -2383,7 +2395,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>479.18599999999998</v>
+        <v>47.918599999999998</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -2391,7 +2403,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>260.863</v>
+        <v>26.086300000000001</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -2399,7 +2411,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>19.116</v>
+        <v>1.9116</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -2407,7 +2419,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.41599999999999998</v>
+        <v>4.1599999999999998E-2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -2415,7 +2427,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>2.4039999999999999</v>
+        <v>0.2404</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -2423,7 +2435,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>80.117000000000004</v>
+        <v>8.0117000000000012</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -2431,7 +2443,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>196.86099999999999</v>
+        <v>19.6861</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -2439,7 +2451,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>530.22699999999998</v>
+        <v>53.0227</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -2447,7 +2459,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>163.08600000000001</v>
+        <v>16.308600000000002</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -2455,7 +2467,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>76.171000000000006</v>
+        <v>7.6171000000000006</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -2463,7 +2475,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>71.149000000000001</v>
+        <v>7.1149000000000004</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -2471,7 +2483,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>101.40900000000001</v>
+        <v>10.1409</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -2479,7 +2491,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>397.50799999999998</v>
+        <v>39.750799999999998</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -2487,7 +2499,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>211.077</v>
+        <v>21.107700000000001</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -2495,7 +2507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7.3999999999999996E-2</v>
+        <v>7.3999999999999995E-3</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -2503,7 +2515,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.51200000000000001</v>
+        <v>5.1200000000000002E-2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -2511,7 +2523,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>4.1390000000000002</v>
+        <v>0.41390000000000005</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -2519,7 +2531,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>61.033999999999999</v>
+        <v>6.1033999999999997</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -2527,7 +2539,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>206.86799999999999</v>
+        <v>20.686799999999998</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -2535,7 +2547,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>496.59199999999998</v>
+        <v>49.659199999999998</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -2543,7 +2555,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>269.702</v>
+        <v>26.970199999999998</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -2551,7 +2563,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>170.78299999999999</v>
+        <v>17.078299999999999</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -2559,7 +2571,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>84.870999999999995</v>
+        <v>8.4870999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -2567,7 +2579,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>115.279</v>
+        <v>11.527899999999999</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -2575,7 +2587,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>501.161</v>
+        <v>50.116100000000003</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -2583,7 +2595,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>497.14</v>
+        <v>49.713999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -2591,7 +2603,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>42.002000000000002</v>
+        <v>4.2002000000000006</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -2599,7 +2611,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.95799999999999996</v>
+        <v>9.5799999999999996E-2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -2607,7 +2619,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>84.366</v>
+        <v>8.4366000000000003</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -2615,7 +2627,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>157.357</v>
+        <v>15.7357</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -2623,7 +2635,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>360.71100000000001</v>
+        <v>36.071100000000001</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -2631,7 +2643,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>569.75400000000002</v>
+        <v>56.9754</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -2639,7 +2651,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>187.62100000000001</v>
+        <v>18.7621</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -2647,7 +2659,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>69.58</v>
+        <v>6.9580000000000002</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -2655,7 +2667,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>54.41</v>
+        <v>5.4409999999999998</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -2663,7 +2675,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>129.994</v>
+        <v>12.9994</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -2671,7 +2683,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>306.96300000000002</v>
+        <v>30.696300000000001</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -2679,7 +2691,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>275.42399999999998</v>
+        <v>27.542399999999997</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -2687,7 +2699,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>24.256</v>
+        <v>2.4256000000000002</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -2695,7 +2707,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.27700000000000002</v>
+        <v>2.7700000000000002E-2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -2703,7 +2715,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.339</v>
+        <v>0.13389999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -2711,7 +2723,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>71.161000000000001</v>
+        <v>7.1161000000000003</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -2719,7 +2731,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>164.75399999999999</v>
+        <v>16.4754</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -2727,7 +2739,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>445.46899999999999</v>
+        <v>44.546900000000001</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -2735,7 +2747,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>193.184</v>
+        <v>19.3184</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -2743,7 +2755,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>46.017000000000003</v>
+        <v>4.6017000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -2751,7 +2763,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>71.706999999999994</v>
+        <v>7.1706999999999992</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -2759,7 +2771,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>110.63</v>
+        <v>11.062999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -2767,7 +2779,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>452.19299999999998</v>
+        <v>45.219299999999997</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -2775,7 +2787,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>366.35599999999999</v>
+        <v>36.635599999999997</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -2783,7 +2795,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>24.013999999999999</v>
+        <v>2.4013999999999998</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -2791,7 +2803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>2.0619999999999998</v>
+        <v>0.20619999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -2799,7 +2811,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>33.832999999999998</v>
+        <v>3.3832999999999998</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -2807,7 +2819,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>72.302999999999997</v>
+        <v>7.2302999999999997</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -2815,7 +2827,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>249.7</v>
+        <v>24.97</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -2823,7 +2835,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>398.55099999999999</v>
+        <v>39.8551</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -2831,7 +2843,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>151.827</v>
+        <v>15.182700000000001</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -2839,7 +2851,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>78.191000000000003</v>
+        <v>7.8191000000000006</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -2847,7 +2859,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>90.775000000000006</v>
+        <v>9.0775000000000006</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -2855,7 +2867,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>117.854</v>
+        <v>11.785399999999999</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -2863,7 +2875,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>371.95499999999998</v>
+        <v>37.195499999999996</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -2871,7 +2883,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>443.52499999999998</v>
+        <v>44.352499999999999</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -2879,7 +2891,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>41.866999999999997</v>
+        <v>4.1867000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -2887,7 +2899,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>8.4429999999999996</v>
+        <v>0.84429999999999994</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -2895,7 +2907,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>3.12</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -2903,7 +2915,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>12.025</v>
+        <v>1.2025000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -2911,7 +2923,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>110.968</v>
+        <v>11.0968</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -2919,7 +2931,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>344.173</v>
+        <v>34.417299999999997</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -2927,7 +2939,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>145.07400000000001</v>
+        <v>14.507400000000001</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -2935,7 +2947,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>64.305999999999997</v>
+        <v>6.4306000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -2943,7 +2955,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>49.341000000000001</v>
+        <v>4.9340999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -2951,7 +2963,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>123.795</v>
+        <v>12.3795</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -2959,7 +2971,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>417.01799999999997</v>
+        <v>41.701799999999999</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -2967,7 +2979,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>392.87400000000002</v>
+        <v>39.287400000000005</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -2975,7 +2987,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>38.973999999999997</v>
+        <v>3.8973999999999998</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -2983,7 +2995,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1.375</v>
+        <v>0.13750000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -2991,7 +3003,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>10.038</v>
+        <v>1.0038</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -2999,7 +3011,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>79.748999999999995</v>
+        <v>7.9748999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -3007,7 +3019,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>178.74700000000001</v>
+        <v>17.874700000000001</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -3015,7 +3027,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>179.93700000000001</v>
+        <v>17.9937</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -3023,7 +3035,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>100.608</v>
+        <v>10.0608</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -3031,7 +3043,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>54.981000000000002</v>
+        <v>5.4981</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -3039,7 +3051,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>61.271999999999998</v>
+        <v>6.1272000000000002</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -3047,7 +3059,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>121.364</v>
+        <v>12.1364</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -3055,7 +3067,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>370.73</v>
+        <v>37.073</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -3063,7 +3075,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>228.44</v>
+        <v>22.844000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -3071,7 +3083,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>10.878</v>
+        <v>1.0878000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -3079,7 +3091,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.64800000000000002</v>
+        <v>6.4799999999999996E-2</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -3087,7 +3099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>10.503</v>
+        <v>1.0503</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -3095,7 +3107,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>54.588000000000001</v>
+        <v>5.4588000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -3103,7 +3115,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>312.81099999999998</v>
+        <v>31.281099999999999</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -3111,7 +3123,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>435.40600000000001</v>
+        <v>43.540599999999998</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -3119,7 +3131,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>148.98699999999999</v>
+        <v>14.8987</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -3127,7 +3139,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>40.180999999999997</v>
+        <v>4.0180999999999996</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -3135,7 +3147,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>64.572000000000003</v>
+        <v>6.4572000000000003</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -3143,7 +3155,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>170.3</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -3151,7 +3163,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>541.77200000000005</v>
+        <v>54.177200000000006</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -3159,7 +3171,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>287.27</v>
+        <v>28.726999999999997</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -3167,7 +3179,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>9.1739999999999995</v>
+        <v>0.91739999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -3175,7 +3187,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>2.4809999999999999</v>
+        <v>0.24809999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -3183,7 +3195,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>59.639000000000003</v>
+        <v>5.9639000000000006</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -3191,7 +3203,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>129.15199999999999</v>
+        <v>12.915199999999999</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -3199,7 +3211,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>462.68099999999998</v>
+        <v>46.268099999999997</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -3207,7 +3219,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>458.608</v>
+        <v>45.860799999999998</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -3215,7 +3227,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>139.77600000000001</v>
+        <v>13.977600000000001</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -3223,7 +3235,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>40.917000000000002</v>
+        <v>4.0917000000000003</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -3231,7 +3243,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>85.927999999999997</v>
+        <v>8.5928000000000004</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -3239,7 +3251,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>180.96700000000001</v>
+        <v>18.096700000000002</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -3247,7 +3259,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>447.07400000000001</v>
+        <v>44.7074</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -3255,7 +3267,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>315.88</v>
+        <v>31.588000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -3263,7 +3275,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>23.521999999999998</v>
+        <v>2.3521999999999998</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -3271,7 +3283,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>13.333</v>
+        <v>1.3332999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -3279,7 +3291,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>35.883000000000003</v>
+        <v>3.5883000000000003</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -3287,7 +3299,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>85.466999999999999</v>
+        <v>8.5466999999999995</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -3295,7 +3307,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>188.12899999999999</v>
+        <v>18.812899999999999</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -3303,7 +3315,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>698.56</v>
+        <v>69.855999999999995</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -3311,7 +3323,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>185.95599999999999</v>
+        <v>18.595599999999997</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -3319,7 +3331,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>75.155000000000001</v>
+        <v>7.5155000000000003</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -3327,7 +3339,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>76.984999999999999</v>
+        <v>7.6985000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -3335,7 +3347,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>169.54300000000001</v>
+        <v>16.9543</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -3343,7 +3355,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>387.64</v>
+        <v>38.763999999999996</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -3351,7 +3363,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>472.87799999999999</v>
+        <v>47.287799999999997</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -3359,7 +3371,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>33.006</v>
+        <v>3.3006000000000002</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -3367,7 +3379,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>22.318999999999999</v>
+        <v>2.2319</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -3375,7 +3387,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>37.280999999999999</v>
+        <v>3.7281</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -3383,7 +3395,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>102.124</v>
+        <v>10.212399999999999</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -3391,7 +3403,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>414.04700000000003</v>
+        <v>41.404700000000005</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -3399,7 +3411,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>518.77300000000002</v>
+        <v>51.877300000000005</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -3407,7 +3419,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>239.227</v>
+        <v>23.922699999999999</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -3415,7 +3427,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>94.668000000000006</v>
+        <v>9.466800000000001</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -3423,7 +3435,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>54.039000000000001</v>
+        <v>5.4039000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -3431,7 +3443,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>164.47300000000001</v>
+        <v>16.447300000000002</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -3439,7 +3451,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>433.18900000000002</v>
+        <v>43.318899999999999</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -3447,7 +3459,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>562.68899999999996</v>
+        <v>56.268899999999995</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -3455,7 +3467,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>107.39</v>
+        <v>10.739000000000001</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -3463,7 +3475,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>11.023</v>
+        <v>1.1023000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -3471,7 +3483,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>62.387999999999998</v>
+        <v>6.2387999999999995</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -3479,7 +3491,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>131.39500000000001</v>
+        <v>13.139500000000002</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -3487,7 +3499,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>248.64400000000001</v>
+        <v>24.8644</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -3495,7 +3507,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>468.58800000000002</v>
+        <v>46.858800000000002</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -3503,7 +3515,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>161.34200000000001</v>
+        <v>16.1342</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -3511,7 +3523,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>47.988999999999997</v>
+        <v>4.7988999999999997</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -3519,7 +3531,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>75.385000000000005</v>
+        <v>7.5385000000000009</v>
       </c>
     </row>
   </sheetData>
